--- a/biology/Médecine/Jacques_Henri_Désiré_Petetin/Jacques_Henri_Désiré_Petetin.xlsx
+++ b/biology/Médecine/Jacques_Henri_Désiré_Petetin/Jacques_Henri_Désiré_Petetin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Henri_D%C3%A9sir%C3%A9_Petetin</t>
+          <t>Jacques_Henri_Désiré_Petetin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Henri Désiré Petetin, né en 1744 à Lons-le-Saunier dans le Jura et mort le 27 février 1808 à Lyon, est un médecin français[1], membre de l’Académie des sciences, belles-lettres et arts de Lyon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Henri Désiré Petetin, né en 1744 à Lons-le-Saunier dans le Jura et mort le 27 février 1808 à Lyon, est un médecin français, membre de l’Académie des sciences, belles-lettres et arts de Lyon.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Henri_D%C3%A9sir%C3%A9_Petetin</t>
+          <t>Jacques_Henri_Désiré_Petetin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Henri Désiré Petetin étudie au collège de Lons, puis au séminaire Saint-Irénée à Lyon. A quinze ans, il est envoyé à Besançon où il étudie la théologie. Là-bas, il s’oriente vers la médecine. Il termine ses études à Montpellier où il est reçu docteur[2]. 
-Il est médecin à Tournus en Saône-et-Loire, de 1766 à 1774. Il exerce ensuite à Lyon où il est agrégé de médecine au collège des médecins de Lyon[3]. Il est nommé médecin inspecteur de la 7e division militaire à Besançon après le siège de la ville de Lyon en 1793. Il revient ensuite à Lyon[2].
-En 1802, Jacques-Henri Petetin publie une théorie sur le mécanisme de l’électricité[2]. En 1803, il prouve par sa théorie sur le galvanisme l'identité des fluides galvaniques et électriques[4]. 
-Il meurt à Lyon le 27 février 1808[1].
-Sociétés Savantes
-Jacques-Henri Désiré Petetin est élu membre de l’Académie des sciences, belles-lettres et arts de Lyon en 1800[3]. Il en est le président en 1806. Dans ses interventions à l’Académie il se concentre, entre autres, sur l’utilisation de l’électricité pour le traitement de certaines maladies[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Henri Désiré Petetin étudie au collège de Lons, puis au séminaire Saint-Irénée à Lyon. A quinze ans, il est envoyé à Besançon où il étudie la théologie. Là-bas, il s’oriente vers la médecine. Il termine ses études à Montpellier où il est reçu docteur. 
+Il est médecin à Tournus en Saône-et-Loire, de 1766 à 1774. Il exerce ensuite à Lyon où il est agrégé de médecine au collège des médecins de Lyon. Il est nommé médecin inspecteur de la 7e division militaire à Besançon après le siège de la ville de Lyon en 1793. Il revient ensuite à Lyon.
+En 1802, Jacques-Henri Petetin publie une théorie sur le mécanisme de l’électricité. En 1803, il prouve par sa théorie sur le galvanisme l'identité des fluides galvaniques et électriques. 
+Il meurt à Lyon le 27 février 1808.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Henri_D%C3%A9sir%C3%A9_Petetin</t>
+          <t>Jacques_Henri_Désiré_Petetin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +556,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sociétés Savantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques-Henri Désiré Petetin est élu membre de l’Académie des sciences, belles-lettres et arts de Lyon en 1800. Il en est le président en 1806. Dans ses interventions à l’Académie il se concentre, entre autres, sur l’utilisation de l’électricité pour le traitement de certaines maladies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Henri_Désiré_Petetin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Henri_D%C3%A9sir%C3%A9_Petetin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Observations sur l’établissement d’un cimetière général hors de la ville de Lyon, Lyon : Aimé de la Roche, 1776.
 CR sur les hôpitaux militaires établis à Besançon, par les citoyens Tissot et Petetin, Besançon : De Briot, an II, 21 p.
 Recette pour guérir toutes les maladies, donnée par un médecin philanthrope, pièce de vers insérée dans le Journal de Lyon et du Midi, n° 41, 21 ventôse an X.
-Électricité animale prouvée par la découverte des phénomènes physiques et moraux de la Catalepsie hystérique, et de ses variétés ; et par les bons effets de l’électricité artificielle dans le traitement de ces maladies, Lyon : Bruyset aîné et Buyrand, 1805[4].</t>
+Électricité animale prouvée par la découverte des phénomènes physiques et moraux de la Catalepsie hystérique, et de ses variétés ; et par les bons effets de l’électricité artificielle dans le traitement de ces maladies, Lyon : Bruyset aîné et Buyrand, 1805.</t>
         </is>
       </c>
     </row>
